--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st06.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st06.xlsx
@@ -2868,7 +2868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  If I had to put a name to the main emotion, I think I’d have to say “helplessness.”
+    <t xml:space="preserve">[name="Amiya"]  If I had to put a name to the main emotion, I think I’d have to say 'helplessness.'
 </t>
   </si>
   <si>
@@ -2896,7 +2896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  What each operator is willing to tell us when they register their file, that’s all we “can” know about them.
+    <t xml:space="preserve">[name="Amiya"]  What each operator is willing to tell us when they register their file, that’s all we 'can' know about them.
 </t>
   </si>
   <si>
@@ -2936,7 +2936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I feel like “I understand you” isn’t worth much.
+    <t xml:space="preserve">[name="Amiya"]  I feel like 'I understand you' isn’t worth much.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st06.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st06.xlsx
@@ -2072,15 +2072,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="You don’t look so good.", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Ah, um, there’s a matter of some concern.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Doctor, look, it’s an internal transfer application.
+    <t xml:space="preserve">[Decision(options="You don't look so good.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Ah, um, there's a matter of some concern.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Doctor, look, it's an internal transfer application.
 </t>
   </si>
   <si>
@@ -2092,11 +2092,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="The Ursus Student Self-Government Group...;......;Sorry, who is that?", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Right. She’s the only member working in Logistics.
+    <t xml:space="preserve">[Decision(options="The Ursus Student Self-Governing Group...;......;Sorry, who is that?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Right. She's the only member working in Logistics.
 </t>
   </si>
   <si>
@@ -2104,15 +2104,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Of course you’d be worried about it too. Honestly, I don’t really want to approve this one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I get it. Ursus names are hard. I’m not surprised you forgot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  She’s one of the survivors we rescued from Chernobog, and a member of Zima’s Ursus Student Self-Government Group.
+    <t xml:space="preserve">[name="Amiya"]  Of course you'd be worried about it too. Honestly, I don't really want to approve this one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I get it. Ursus names are hard. I'm not surprised you forgot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  She's one of the survivors we rescued from Chernobog, and a member of Zima's Ursus Student Self-Governing Group.
 </t>
   </si>
   <si>
@@ -2120,7 +2120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Do you remember that Zima’s team became combat operators at their own request?
+    <t xml:space="preserve">[name="Amiya"]  Do you remember that Zima's team became combat operators at their own request?
 </t>
   </si>
   <si>
@@ -2128,7 +2128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="It hasn’t been that long since they were rescued...;......;I trust your judgment.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="It hasn't been that long since they were rescued...;......;I trust your judgment.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2136,11 +2136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s just...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  They get regular psychological counseling and according to the reports, they’re generally healthy, notwithstanding the occasional dark spot.
+    <t xml:space="preserve">[name="Amiya"]  It's just...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  They get regular psychological counseling and according to the reports, they're generally healthy, notwithstanding the occasional dark spot.
 </t>
   </si>
   <si>
@@ -2148,7 +2148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I don’t know how to put it better.
+    <t xml:space="preserve">[name="Amiya"]  I don't know how to put it better.
 </t>
   </si>
   <si>
@@ -2160,19 +2160,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I know it’s kind of a pain, but you’re the only one who can do it, Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Doctor, this is really important. Don’t be lazy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  And you really don’t have to take it too seriously. Just think of it as a little change of scenery.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Oh, it’s already lunchtime. No need to rush, you can go see her after you eat.
+    <t xml:space="preserve">[name="Amiya"]  I know it's kind of a pain, but you're the only one who can do it, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Doctor, this is really important. Don't be lazy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  And you really don't have to take it too seriously. Just think of it as a little change of scenery.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh, it's already lunchtime. No need to rush, you can go see her after you eat.
 </t>
   </si>
   <si>
@@ -2180,7 +2180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="What’s up?;......;Hey, Zima.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="What's up?;......;Hey, Zima.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2188,19 +2188,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Hey, don’t pretend you didn’t hear me. I saw you stop.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  Aren’t you like super busy all the time? What are you doing wandering the halls?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  You don’t look busy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  I’ve got a mission. I can’t be enjoying a leisurely stroll like you.
+    <t xml:space="preserve">[name="Zima"]  Hey, don't pretend you didn't hear me. I saw you stop.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  Aren't you like super busy all the time? What are you doing wandering the halls?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  You don't look busy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  I've got a mission. I can't be enjoying a leisurely stroll like you.
 </t>
   </si>
   <si>
@@ -2216,23 +2216,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  Come on, Zima, back to the ready room. It’s time to go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  Hmph. One day I’m gonna be the captain and boss you around.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  You too, Doctor. You’re gonna answer to me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  I like the ambition. Let’s talk about it after you’ve got one on me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  As for the Doctor, well, you’ll have to have won a lot more than one.
+    <t xml:space="preserve">[name="Nearl"]  Come on, Zima, back to the ready room. It's time to go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  Hmph. One day I'm gonna be the captain and boss you around.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  You too, Doctor. You're gonna answer to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  I like the ambition. Let's talk about it after you've got one on me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  As for the Doctor, well, you'll have to have won a lot more than one.
 </t>
   </si>
   <si>
@@ -2240,11 +2240,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  Oh, Doctor, you should know, I’ve been taking the rookie team lately.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  So if you don’t have anything else, I’ll get going.
+    <t xml:space="preserve">[name="Nearl"]  Oh, Doctor, you should know, I've been taking the rookie team lately.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  So if you don't have anything else, I'll get going.
 </t>
   </si>
   <si>
@@ -2256,23 +2256,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  Hm... Well, you just saw that she doesn’t take well to discipline. She’s very insubordinate. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  And as a warrior, at her age, it’s normal to not know what you’re fighting, or what you’re fighting for.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  But it’s especially obvious for Zima.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  She suffers from a lot of confusion. I don’t know exactly what it is, but it’s a bad sign and something I’m going to focus on correcting next.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="You mean she only looks tough?;......;*Sigh*, I’d really like to get along with her.", values="1;2;3")]
+    <t xml:space="preserve">[name="Nearl"]  Hm... Well, you just saw that she doesn't take well to discipline. She's very insubordinate. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  And as a warrior, at her age, it's normal to not know what you're fighting, or what you're fighting for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  But it's especially obvious for Zima.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  She suffers from a lot of confusion. I don't know exactly what it is, but it's a bad sign and something I'm going to focus on correcting next.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You mean she only looks tough?;......;*Sigh*, I'd really like to get along with her.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2280,23 +2280,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  I wouldn’t go so far as to say she has a fragile heart under that shell, but I can say that toughness is very fragile, in front of me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  Don’t worry, Doctor. She’s still a kid.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  I heard she’s from Chernobog. I’m sure she’s carrying a lot of baggage. But she has a future.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  Hah, don’t worry, Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  You must know, she doesn’t hate you or anything.
+    <t xml:space="preserve">[name="Nearl"]  I wouldn't go so far as to say she has a fragile heart under that shell, but I can say that toughness is very fragile, in front of me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Don't worry, Doctor. She's still a kid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  I heard she's from Chernobog. I'm sure she's carrying a lot of baggage. But she has a future.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Hah, don't worry, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  You must know, she doesn't hate you or anything.
 </t>
   </si>
   <si>
@@ -2304,15 +2304,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  But I do have to say, I think this kid’s all right, Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  In fact, I like her. She’s got a strong sense of integrity. So even if she’s confused, that integrity will keep her on the right path.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Nearl"]  And that’s rare.
+    <t xml:space="preserve">[name="Nearl"]  But I do have to say, I think this kid's all right, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  In fact, I like her. She's got a strong sense of integrity. So even if she's confused, that integrity will keep her on the right path.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  And that's rare.
 </t>
   </si>
   <si>
@@ -2320,11 +2320,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Wow, it’s the Doctor!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Afternoon, Gummy.;......;Wow, it’s Gummy!", values="1;2;3")]
+    <t xml:space="preserve">[name="Gummy"]  Wow, it's the Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Afternoon, Gummy.;......;Wow, it's Gummy!", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2340,7 +2340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  You’re looking good today!
+    <t xml:space="preserve">[name="Gummy"]  You're looking good today!
 </t>
   </si>
   <si>
@@ -2348,7 +2348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  I haven’t had any missions lately, so I’m helping out in the kitchen.
+    <t xml:space="preserve">[name="Gummy"]  I haven't had any missions lately, so I'm helping out in the kitchen.
 </t>
   </si>
   <si>
@@ -2364,7 +2364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Perfumer"]  No thank you. I’m used to cooking for myself in my workshop.
+    <t xml:space="preserve">[name="Perfumer"]  No thank you. I'm used to cooking for myself in my workshop.
 </t>
   </si>
   <si>
@@ -2376,7 +2376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Matterhorn"]  Gummy, can you lend a hand when you’ve got a minute?
+    <t xml:space="preserve">[name="Matterhorn"]  Gummy, can you lend a hand when you've got a minute?
 </t>
   </si>
   <si>
@@ -2384,15 +2384,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Matterhorn"]  Hung is out on a mission and I’m a little short-handed. I need you to take this pot for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  Sure, Uncle Matterhorn! I’ll see you next time, Perfumer. And you eat well too, Doctor!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Perfumer"]  Sure. You’re welcome anytime.
+    <t xml:space="preserve">[name="Matterhorn"]  Hung is out on a mission and I'm a little short-handed. I need you to take this pot for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  Sure, Uncle Matterhorn! I'll see you next time, Perfumer. And you eat well too, Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Perfumer"]  Sure. You're welcome anytime.
 </t>
   </si>
   <si>
@@ -2408,15 +2408,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vanguard Operator"]  Haha, I’ll get seconds!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  Settle down, everybody. There’s enough to go around!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Perfumer"]  Gummy sure has a lot of energy, doesn’t she, Doctor?
+    <t xml:space="preserve">[name="Vanguard Operator"]  Haha, I'll get seconds!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  Settle down, everybody. There's enough to go around!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Perfumer"]  Gummy sure has a lot of energy, doesn't she, Doctor?
 </t>
   </si>
   <si>
@@ -2432,7 +2432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Perfumer"]  You can’t expect them to heal instantly. But given time, they’ll be okay.
+    <t xml:space="preserve">[name="Perfumer"]  You can't expect them to heal instantly. But given time, they'll be okay.
 </t>
   </si>
   <si>
@@ -2444,7 +2444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Perfumer"]  I’ll be keeping that secret for her. But rest assured, she doesn’t need comfort, she just needs time.
+    <t xml:space="preserve">[name="Perfumer"]  I'll be keeping that secret for her. But rest assured, she doesn't need comfort, she just needs time.
 </t>
   </si>
   <si>
@@ -2452,7 +2452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Perfumer"]  But rest assured, if there was something really important, I wouldn’t hold my tongue.
+    <t xml:space="preserve">[name="Perfumer"]  But rest assured, if there was something really important, I wouldn't hold my tongue.
 </t>
   </si>
   <si>
@@ -2460,7 +2460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Perfumer"]  Doctor, don’t be so full of yourself that you think you have to take care of everyone.
+    <t xml:space="preserve">[name="Perfumer"]  Doctor, don't be so full of yourself that you think you have to take care of everyone.
 </t>
   </si>
   <si>
@@ -2468,7 +2468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Perfumer"]  It’s time I went back to the office.
+    <t xml:space="preserve">[name="Perfumer"]  It's time I went back to the office.
 </t>
   </si>
   <si>
@@ -2480,11 +2480,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Afternoon, Istina.;......;How’s the food today, Istina?", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  I’ve never seen you in the canteen before, Doctor.
+    <t xml:space="preserve">[Decision(options="Afternoon, Istina.;......;How's the food today, Istina?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  I've never seen you in the canteen before, Doctor.
 </t>
   </si>
   <si>
@@ -2492,11 +2492,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Hm... the rice is a little firm today, and the soup is too sweet. But I’m enjoying the vegetables.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  If there’s nothing more, Doctor, I’ll be going.
+    <t xml:space="preserve">[name="Istina"]  Hm... the rice is a little firm today, and the soup is too sweet. But I'm enjoying the vegetables.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  If there's nothing more, Doctor, I'll be going.
 </t>
   </si>
   <si>
@@ -2508,15 +2508,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Yes, Hypatia’s history class.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  After auditing for a while, I found Hypatia’s take on history very helpful for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Can I help you?;......;I’m great at history too!", values="1;2;3")]
+    <t xml:space="preserve">[name="Istina"]  Yes, Hypatia's history class.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  After auditing for a while, I found Hypatia's take on history very helpful for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Can I help you?;......;I'm great at history too!", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2524,11 +2524,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Oh, I don’t mean to refuse you. I’m having trouble explaining, because I’m not very clear either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Hypatia’s lectures are very interesting. I think you should take a listen yourself, when you have time.
+    <t xml:space="preserve">[name="Istina"]  Oh, I don't mean to refuse you. I'm having trouble explaining, because I'm not very clear either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Hypatia's lectures are very interesting. I think you should take a listen yourself, when you have time.
 </t>
   </si>
   <si>
@@ -2540,11 +2540,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  I’ll say, I could use some guidance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  In fact, I’m not certain the study of history will help me that much.
+    <t xml:space="preserve">[name="Istina"]  I'll say, I could use some guidance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  In fact, I'm not certain the study of history will help me that much.
 </t>
   </si>
   <si>
@@ -2552,7 +2552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  I’m off to class then.
+    <t xml:space="preserve">[name="Istina"]  I'm off to class then.
 </t>
   </si>
   <si>
@@ -2560,11 +2560,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Istina"]  Natalya...? You’re looking for her?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Istina"]  Gummy told me she wants to become a front line operator. I haven’t heard if her application has been approved, but from what I know of her, she is likely already preparing for the transfer.
+    <t xml:space="preserve">[name="Istina"]  Natalya...? You're looking for her?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Istina"]  Gummy told me she wants to become a front line operator. I haven't heard if her application has been approved, but from what I know of her, she is likely already preparing for the transfer.
 </t>
   </si>
   <si>
@@ -2572,7 +2572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Don’t be so sure, Rosalind. I’m going to hit you.
+    <t xml:space="preserve">[name="Natalya"]  Don't be so sure, Rosalind. I'm going to hit you.
 </t>
   </si>
   <si>
@@ -2604,7 +2604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  It kinda looks like you can’t move anymore. Why not take a little break?
+    <t xml:space="preserve">[name="Leto"]  It kinda looks like you can't move anymore. Why not take a little break?
 </t>
   </si>
   <si>
@@ -2620,11 +2620,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  Being Ursus gives you a nice base to build on, but you’re a long way from combat ready.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Pshh... whew... Sorry. I’ll keep trying.
+    <t xml:space="preserve">[name="Dobermann"]  Being Ursus gives you a nice base to build on, but you're a long way from combat ready.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Pshh... whew... Sorry. I'll keep trying.
 </t>
   </si>
   <si>
@@ -2632,7 +2632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  If you can push through this round of training, it’ll be good for you, even if you don’t become an operator.
+    <t xml:space="preserve">[name="Dobermann"]  If you can push through this round of training, it'll be good for you, even if you don't become an operator.
 </t>
   </si>
   <si>
@@ -2668,11 +2668,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  Doctor, it’s lunchtime. You should be resting. We don’t need you here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Afternoon, Dobermann.;......;I can’t be here?", values="1;2;3")]
+    <t xml:space="preserve">[name="Dobermann"]  Doctor, it's lunchtime. You should be resting. We don't need you here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Afternoon, Dobermann.;......;I can't be here?", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2680,23 +2680,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  If you’re just here to say hello to me, I’ve got plenty to get back to.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  You’re slowly but surely becoming a leader. That’s no bad thing, I have to say.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  You can, but I have to take time to deal with you. I hope it won’t be a lot.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  But I guess Amiya told you we have another girl from Zima’s group who wants to be an operator, and you wanted to check her out?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  Don’t look so surprised.
+    <t xml:space="preserve">[name="Dobermann"]  If you're just here to say hello to me, I've got plenty to get back to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  You're slowly but surely becoming a leader. That's no bad thing, I have to say.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  You can, but I have to take time to deal with you. I hope it won't be a lot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  But I guess Amiya told you we have another girl from Zima's group who wants to be an operator, and you wanted to check her out?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Don't look so surprised.
 </t>
   </si>
   <si>
@@ -2712,19 +2712,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  When those four girls applied, Amiya was dead-set against it. She wanted to veto their applications. I don’t know why, but she changed her mind at some point in the process.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  And so now that there’s another one, it would be out of character for her not to care...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Natalya"]  Phew, that’s enough rest. Rosalind, practice with me a while.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  Wow, you’re really committed. 
+    <t xml:space="preserve">[name="Dobermann"]  When those four girls applied, Amiya was dead-set against it. She wanted to veto their applications. I don't know why, but she changed her mind at some point in the process.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  And so now that there's another one, it would be out of character for her not to care...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Natalya"]  Phew, that's enough rest. Rosalind, practice with me a while.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  Wow, you're really committed. 
 </t>
   </si>
   <si>
@@ -2736,7 +2736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Instructor Grace"]  Natalya, you still need to rest. The most important part of exercise is recovery. If you keep grinding away at it, you’re just going to break your body.
+    <t xml:space="preserve">[name="Instructor Grace"]  Natalya, you still need to rest. The most important part of exercise is recovery. If you keep grinding away at it, you're just going to break your body.
 </t>
   </si>
   <si>
@@ -2744,7 +2744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Instructor Grace"]  Hey, don’t worry about Dobermann, I know she looks scary...
+    <t xml:space="preserve">[name="Instructor Grace"]  Hey, don't worry about Dobermann, I know she looks scary...
 </t>
   </si>
   <si>
@@ -2756,7 +2756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Natalya"]  Yes, but don’t worry. 
+    <t xml:space="preserve">[name="Natalya"]  Yes, but don't worry. 
 </t>
   </si>
   <si>
@@ -2768,23 +2768,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="She’s resolute.;......;She’s a fighter.", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  Is she now? I don’t think so.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  I’ve seen her type. They grit their teeth, fighting hard not to think.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  Doesn’t it remind you of those three?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  They don’t know where courage comes from, so they bite down and take on society, no matter their age.
+    <t xml:space="preserve">[Decision(options="She's resolute.;......;She's a fighter.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Is she now? I don't think so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  I've seen her type. They grit their teeth, fighting hard not to think.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Doesn't it remind you of those three?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  They don't know where courage comes from, so they bite down and take on society, no matter their age.
 </t>
   </si>
   <si>
@@ -2800,11 +2800,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  I do understand Amiya’s instinct to keep them off the battlefield.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]  Doctor, no one would be happy to send young people to war. Isn’t the point of a soldier like me to protect kids like that?
+    <t xml:space="preserve">[name="Dobermann"]  I do understand Amiya's instinct to keep them off the battlefield.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Doctor, no one would be happy to send young people to war. Isn't the point of a soldier like me to protect kids like that?
 </t>
   </si>
   <si>
@@ -2812,7 +2812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  But I’ve come to terms with the fact that I can’t save everyone.
+    <t xml:space="preserve">[name="Dobermann"]  But I've come to terms with the fact that I can't save everyone.
 </t>
   </si>
   <si>
@@ -2836,23 +2836,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  ...Yes. That’s why I’ve been paying more attention to them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Sorry, Doctor, I... wasn’t sure if I should tell anyone about this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  You know about my ability to sense a person’s most powerful emotions, and to even feel them when they’re directed at me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  If they’re not directed at me, but still strong enough, I can’t feel them as clearly, but I can still sense something.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  And the Ursus girls... it’s hard to say.
+    <t xml:space="preserve">[name="Amiya"]  ...Yes. That's why I've been paying more attention to them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Sorry, Doctor, I... wasn't sure if I should tell anyone about this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  You know about my ability to sense a person's most powerful emotions, and to even feel them when they're directed at me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  If they're not directed at me, but still strong enough, I can't feel them as clearly, but I can still sense something.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  And the Ursus girls... it's hard to say.
 </t>
   </si>
   <si>
@@ -2868,7 +2868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  If I had to put a name to the main emotion, I think I’d have to say 'helplessness.'
+    <t xml:space="preserve">[name="Amiya"]  If I had to put a name to the main emotion, I think I'd have to say 'helplessness.'
 </t>
   </si>
   <si>
@@ -2876,11 +2876,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Maybe it’s not the right word. It’s like... like there’s an invisible wall.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s usually invisible and intangible, but it blocks them whenever they try to move forward. And they’re stuck.
+    <t xml:space="preserve">[name="Amiya"]  Maybe it's not the right word. It's like... like there's an invisible wall.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It's usually invisible and intangible, but it blocks them whenever they try to move forward. And they're stuck.
 </t>
   </si>
   <si>
@@ -2896,7 +2896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  What each operator is willing to tell us when they register their file, that’s all we 'can' know about them.
+    <t xml:space="preserve">[name="Amiya"]  What each operator is willing to tell us when they register their file, that's all we 'can' know about them.
 </t>
   </si>
   <si>
@@ -2904,7 +2904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Of course, that doesn’t include things that might adversely affect Rhodes Island. But I don’t think Zima’s group falls into that category.
+    <t xml:space="preserve">[name="Amiya"]  Of course, that doesn't include things that might adversely affect Rhodes Island. But I don't think Zima's group falls into that category.
 </t>
   </si>
   <si>
@@ -2912,7 +2912,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I’m not sure us suddenly reaching out to help them would actually be helpful.
+    <t xml:space="preserve">[name="Amiya"]  I'm not sure us suddenly reaching out to help them would actually be helpful.
 </t>
   </si>
   <si>
@@ -2924,11 +2924,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Maybe it’s just that I’m a little afraid to do it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Oh, Doctor, you’re teasing again.
+    <t xml:space="preserve">[name="Amiya"]  Maybe it's just that I'm a little afraid to do it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh, Doctor, you're teasing again.
 </t>
   </si>
   <si>
@@ -2936,7 +2936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I feel like 'I understand you' isn’t worth much.
+    <t xml:space="preserve">[name="Amiya"]  I feel like 'I understand you' isn't worth much.
 </t>
   </si>
   <si>
@@ -2944,7 +2944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s hard to understand someone’s feelings, let alone help them.
+    <t xml:space="preserve">[name="Amiya"]  It's hard to understand someone's feelings, let alone help them.
 </t>
   </si>
   <si>
@@ -2952,11 +2952,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  We don’t share any particular experience with them, our words don’t get through to them, and what we do, even if it’s right, won’t be what they want.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="So you didn’t stop the Ursus girls from becoming operators.", values="1")]
+    <t xml:space="preserve">[name="Amiya"]  We don't share any particular experience with them, our words don't get through to them, and what we do, even if it's right, won't be what they want.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="So you didn't stop the Ursus girls from becoming operators.", values="1")]
 </t>
   </si>
   <si>
@@ -2968,7 +2968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Forcing them to safety may seem to us like the right move, like it’s best for them. And it probably would keep them safe, in practice.
+    <t xml:space="preserve">[name="Amiya"]  Forcing them to safety may seem to us like the right move, like it's best for them. And it probably would keep them safe, in practice.
 </t>
   </si>
   <si>
@@ -2976,11 +2976,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Doctor, I really don’t want to say that time heals all wounds. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  But I don’t know any other way.
+    <t xml:space="preserve">[name="Amiya"]  Doctor, I really don't want to say that time heals all wounds. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But I don't know any other way.
 </t>
   </si>
   <si>
@@ -2992,7 +2992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Rhodes Island isn’t a greenhouse. You’re on the right track.;......;Then just make friends with everyone.", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Rhodes Island isn't a greenhouse. You're on the right track.;......;Then just make friends with everyone.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -3012,35 +3012,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Yes, you’re right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  If we aren’t in a position to help someone, we must create the position.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I’m just a little frustrated.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Medicine is for pain, to heal wounds. And some medicines can heal. But in any case, they can’t erase the pain and suffering endured before the medicine is applied.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I’ve always wondered if Rhodes Island could help some people, even if only a few, to forget, or at least let go of the trauma they’ve suffered in the past.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I’ve realized along the way that it’s really hard.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Developing the drug is only the most basic first step. There’s so much more we would have to do to be able to achieve this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="At least we’re already doing it.", values="1")]
+    <t xml:space="preserve">[name="Amiya"]  Yes, you're right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  If we aren't in a position to help someone, we must create the position.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I'm just a little frustrated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Medicine is for pain, to heal wounds. And some medicines can heal. But in any case, they can't erase the pain and suffering endured before the medicine is applied.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I've always wondered if Rhodes Island could help some people, even if only a few, to forget, or at least let go of the trauma they've suffered in the past.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I've realized along the way that it's really hard.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Developing the drug is only the most basic first step. There's so much more we would have to do to be able to achieve this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="At least we're already doing it.", values="1")]
 </t>
   </si>
   <si>
@@ -3048,11 +3048,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I’m kind of embarrassed that you’re comforting and encouraging me over someone else’s business...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Anyway, to business, I’m approving Miss Rostova’s application.
+    <t xml:space="preserve">[name="Amiya"]  I'm kind of embarrassed that you're comforting and encouraging me over someone else's business...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Anyway, to business, I'm approving Miss Rostova's application.
 </t>
   </si>
   <si>
